--- a/util/A1.xlsx
+++ b/util/A1.xlsx
@@ -6,45 +6,45 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="test_general" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="19" uniqueCount="19">
   <si>
     <t>describe</t>
   </si>
   <si>
-    <t>输入NBA</t>
+    <t>点击头像</t>
   </si>
   <si>
     <t>XPATH</t>
   </si>
   <si>
-    <t>//*[@id="kw"]</t>
-  </si>
-  <si>
-    <t>send_keys</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>输入框显示“NBA”</t>
-  </si>
-  <si>
-    <t>点击查找</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
+    <t>//*[@id="app"]/div/div[2]/div[1]/div[1]/div[2]/div/div/div</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
-    <t>点击搜索</t>
+    <t>点击个人中心</t>
+  </si>
+  <si>
+    <t>/html/body/ul/a/li</t>
+  </si>
+  <si>
+    <t>获取登录对象</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[2]/section/div/div/div[1]/div/div[2]/div/ul/li[1]/div</t>
+  </si>
+  <si>
+    <t>get_Text</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <r>
@@ -103,6 +103,18 @@
         <b val="true"/>
       </rPr>
       <t xml:space="preserve">input</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Microsoft YaHei"/>
+        <sz val="12.0"/>
+        <color rgb="FF0188FB"/>
+        <b val="true"/>
+      </rPr>
+      <t xml:space="preserve">wait</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,8 +147,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -154,6 +168,15 @@
       <name val="Microsoft YaHei"/>
       <sz val="10.0"/>
       <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="10.0"/>
     </font>
     <font>
       <name val="微软雅黑"/>
@@ -194,13 +217,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
+      <alignment wrapText="false" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment wrapText="false" horizontal="center" vertical="center"/>
+      <alignment wrapText="false" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true">
+      <alignment wrapText="false" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment wrapText="false"/>
@@ -208,14 +234,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment wrapText="false" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="false" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="false" vertical="center"/>
+      <alignment wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment wrapText="false" vertical="center"/>
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment wrapText="false"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -229,15 +276,32 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="8.0" hidden="false" customWidth="false"/>
-    <col min="2" max="2" width="35.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="35.0" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="35.0" hidden="false" customWidth="true"/>
-    <col min="5" max="5" width="35.0" hidden="false" customWidth="true"/>
-    <col min="6" max="6" width="35.0" hidden="false" customWidth="true"/>
-    <col min="7" max="7" width="35.0" hidden="false" customWidth="true"/>
-    <col min="8" max="8" width="35.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="36.0" hidden="false" customWidth="true"/>
+    <col min="3" max="3" width="19.0" hidden="false" customWidth="true"/>
+    <col min="4" max="4" width="82.0" hidden="false" customWidth="true"/>
+    <col min="5" max="5" width="8.0" hidden="false" customWidth="false"/>
+    <col min="6" max="6" width="8.0" hidden="false" customWidth="false"/>
+    <col min="7" max="7" width="15.0" hidden="false" customWidth="true"/>
+    <col min="8" max="8" width="15.0" hidden="false" customWidth="true"/>
     <col min="9" max="9" width="8.0" hidden="false" customWidth="false"/>
     <col min="10" max="10" width="8.0" hidden="false" customWidth="false"/>
+    <col min="11" max="11" width="8.0" hidden="false" customWidth="false"/>
+    <col min="12" max="12" width="8.0" hidden="false" customWidth="false"/>
+    <col min="13" max="13" width="8.0" hidden="false" customWidth="false"/>
+    <col min="14" max="14" width="8.0" hidden="false" customWidth="false"/>
+    <col min="15" max="15" width="8.0" hidden="false" customWidth="false"/>
+    <col min="16" max="16" width="8.0" hidden="false" customWidth="false"/>
+    <col min="17" max="17" width="8.0" hidden="false" customWidth="false"/>
+    <col min="18" max="18" width="8.0" hidden="false" customWidth="false"/>
+    <col min="19" max="19" width="8.0" hidden="false" customWidth="false"/>
+    <col min="20" max="20" width="8.0" hidden="false" customWidth="false"/>
+    <col min="21" max="21" width="8.0" hidden="false" customWidth="false"/>
+    <col min="22" max="22" width="8.0" hidden="false" customWidth="false"/>
+    <col min="23" max="23" width="8.0" hidden="false" customWidth="false"/>
+    <col min="24" max="24" width="8.0" hidden="false" customWidth="false"/>
+    <col min="25" max="25" width="8.0" hidden="false" customWidth="false"/>
+    <col min="26" max="26" width="8.0" hidden="false" customWidth="false"/>
+    <col min="27" max="27" width="8.0" hidden="false" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -256,67 +320,163 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="true">
-      <c r="A3" s="4" t="n">
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="H4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
